--- a/bots/crawl_ch/output/vegi_coop_2023-01-16.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-16.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5134,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="n">
         <v>5</v>
@@ -6048,7 +6048,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7189,7 +7189,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7323,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7530,7 +7530,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8070,7 +8070,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8472,7 +8472,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8606,7 +8606,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9304,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9373,7 +9373,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9584,7 +9584,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9722,7 +9722,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9787,7 +9787,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -9990,7 +9990,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10124,7 +10124,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10323,7 +10323,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10392,7 +10392,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10526,7 +10526,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10599,7 +10599,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10652,7 +10652,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10790,7 +10790,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10932,7 +10932,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11068,7 +11068,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11210,7 +11210,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11279,7 +11279,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11482,7 +11482,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11551,7 +11551,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11624,7 +11624,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11839,7 +11839,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11904,7 +11904,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12042,7 +12042,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12095,7 +12095,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12164,7 +12164,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12233,7 +12233,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12302,7 +12302,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12371,7 +12371,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12440,7 +12440,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12509,7 +12509,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12572,7 +12572,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12714,7 +12714,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12777,7 +12777,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12842,7 +12842,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12911,7 +12911,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -12980,7 +12980,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13045,7 +13045,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13114,7 +13114,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13183,7 +13183,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -13946,7 +13946,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14015,7 +14015,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14208,7 +14208,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14277,7 +14277,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14415,7 +14415,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14480,7 +14480,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14549,7 +14549,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14614,7 +14614,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14679,7 +14679,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14748,7 +14748,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14890,7 +14890,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15101,7 +15101,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15150,7 +15150,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15215,7 +15215,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15284,7 +15284,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15349,7 +15349,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15487,7 +15487,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15554,7 +15554,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15619,7 +15619,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15757,7 +15757,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15826,7 +15826,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15895,7 +15895,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -15964,7 +15964,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16102,7 +16102,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16171,7 +16171,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16240,7 +16240,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16386,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16459,7 +16459,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16528,7 +16528,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16593,7 +16593,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16662,7 +16662,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16731,7 +16731,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16800,7 +16800,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16873,7 +16873,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17013,7 +17013,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17082,7 +17082,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17133,7 +17133,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17206,7 +17206,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17275,7 +17275,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17344,7 +17344,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17563,7 +17563,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17928,7 +17928,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -17997,7 +17997,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18070,7 +18070,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18139,7 +18139,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18212,7 +18212,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18350,7 +18350,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18419,7 +18419,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18484,7 +18484,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18557,7 +18557,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18622,7 +18622,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18691,7 +18691,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18760,7 +18760,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18833,7 +18833,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18902,7 +18902,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -18967,7 +18967,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19032,7 +19032,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19105,7 +19105,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19170,7 +19170,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19316,7 +19316,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19458,7 +19458,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19531,7 +19531,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19580,7 +19580,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19649,7 +19649,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19714,7 +19714,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19779,7 +19779,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19844,7 +19844,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19913,7 +19913,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -19982,7 +19982,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20045,7 +20045,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20118,7 +20118,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20183,7 +20183,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20398,7 +20398,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20471,7 +20471,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20544,7 +20544,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20609,7 +20609,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20682,7 +20682,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20751,7 +20751,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20824,7 +20824,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20893,7 +20893,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -20966,7 +20966,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21029,7 +21029,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21102,7 +21102,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21451,7 +21451,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21808,7 +21808,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22007,7 +22007,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22080,7 +22080,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22433,7 +22433,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22500,7 +22500,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22573,7 +22573,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22626,7 +22626,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22772,7 +22772,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22835,7 +22835,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22904,7 +22904,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -22969,7 +22969,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23042,7 +23042,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23184,7 +23184,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23257,7 +23257,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23326,7 +23326,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23395,7 +23395,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23468,7 +23468,7 @@
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23541,7 +23541,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23606,7 +23606,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23673,7 +23673,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23736,7 +23736,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23809,7 +23809,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23878,7 +23878,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -23943,7 +23943,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24008,7 +24008,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24081,7 +24081,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24150,7 +24150,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24221,7 +24221,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24286,7 +24286,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24428,7 +24428,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24501,7 +24501,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24574,7 +24574,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24647,7 +24647,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24720,7 +24720,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24783,7 +24783,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24852,7 +24852,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -24998,7 +24998,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25067,7 +25067,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25140,7 +25140,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25209,7 +25209,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25282,7 +25282,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25351,7 +25351,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25424,7 +25424,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25493,7 +25493,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25562,7 +25562,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25704,7 +25704,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25777,7 +25777,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25846,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25919,7 +25919,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -25992,7 +25992,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26065,7 +26065,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26134,7 +26134,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26207,7 +26207,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26272,7 +26272,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26321,7 +26321,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26394,7 +26394,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26457,7 +26457,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26530,7 +26530,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26603,7 +26603,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26822,7 +26822,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26895,7 +26895,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -26964,7 +26964,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27037,7 +27037,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27110,7 +27110,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27175,7 +27175,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27248,7 +27248,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27394,7 +27394,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27467,7 +27467,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27540,7 +27540,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27613,7 +27613,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27660,7 +27660,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27733,7 +27733,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27802,7 +27802,7 @@
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -27948,7 +27948,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28017,7 +28017,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28090,7 +28090,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28163,7 +28163,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28236,7 +28236,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28309,7 +28309,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28382,7 +28382,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28451,7 +28451,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28516,7 +28516,7 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28589,7 +28589,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28662,7 +28662,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28735,7 +28735,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28808,7 +28808,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28881,7 +28881,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -28954,7 +28954,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29027,7 +29027,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29100,7 +29100,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29173,7 +29173,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29246,7 +29246,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29317,7 +29317,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29382,7 +29382,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29455,7 +29455,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29520,7 +29520,7 @@
       <c r="N423" t="inlineStr"/>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29585,7 +29585,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29638,7 +29638,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29711,7 +29711,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29784,7 +29784,7 @@
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29857,7 +29857,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29930,7 +29930,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -29999,7 +29999,7 @@
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30064,7 +30064,7 @@
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30135,7 +30135,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30206,7 +30206,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30277,7 +30277,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30350,7 +30350,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30423,7 +30423,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30492,7 +30492,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30711,7 +30711,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30784,7 +30784,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30849,7 +30849,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30918,7 +30918,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -30989,7 +30989,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31058,7 +31058,7 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31129,7 +31129,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31202,7 +31202,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31275,7 +31275,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31328,7 +31328,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31397,7 +31397,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31460,7 +31460,7 @@
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31533,7 +31533,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31602,7 +31602,7 @@
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31675,7 +31675,7 @@
       </c>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31744,7 +31744,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31817,7 +31817,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31886,7 +31886,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -31957,7 +31957,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32030,7 +32030,7 @@
       </c>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32103,7 +32103,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32176,7 +32176,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32241,7 +32241,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32314,7 +32314,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32387,7 +32387,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32460,7 +32460,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32529,7 +32529,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32594,7 +32594,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32663,7 +32663,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32736,7 +32736,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32805,7 +32805,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32852,7 +32852,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32917,7 +32917,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -32986,7 +32986,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33055,7 +33055,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33106,7 +33106,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33171,7 +33171,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33244,7 +33244,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33309,7 +33309,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33382,7 +33382,7 @@
       </c>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33455,7 +33455,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33526,7 +33526,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33672,7 +33672,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33735,7 +33735,7 @@
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33804,7 +33804,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33869,7 +33869,7 @@
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -33942,7 +33942,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34007,7 +34007,7 @@
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34080,7 +34080,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34153,7 +34153,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34226,7 +34226,7 @@
       </c>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34283,7 +34283,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34356,7 +34356,7 @@
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34425,7 +34425,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34498,7 +34498,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34571,7 +34571,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34636,7 +34636,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34703,7 +34703,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34776,7 +34776,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34849,7 +34849,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34916,7 +34916,7 @@
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -34987,7 +34987,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35060,7 +35060,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35133,7 +35133,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35206,7 +35206,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35277,7 +35277,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35348,7 +35348,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35421,7 +35421,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35494,7 +35494,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35563,7 +35563,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35636,7 +35636,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35709,7 +35709,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35782,7 +35782,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35855,7 +35855,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35918,7 +35918,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -35987,7 +35987,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36060,7 +36060,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36131,7 +36131,7 @@
       </c>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36200,7 +36200,7 @@
       <c r="N519" t="inlineStr"/>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36273,7 +36273,7 @@
       </c>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36340,7 +36340,7 @@
       <c r="N521" t="inlineStr"/>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36411,7 +36411,7 @@
       </c>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36482,7 +36482,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
@@ -36553,7 +36553,7 @@
       </c>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-16 06:50:33</t>
+          <t>2023-01-16 12:59:29</t>
         </is>
       </c>
     </row>
